--- a/J0es.xlsx
+++ b/J0es.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,1344 +492,2496 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>5.6235e+15</t>
+          <t>1.0557e+16</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>5.8281e+02</t>
+          <t>7.1709e+02</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>3.2086e-15</t>
+          <t>2.9503e-15</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>4.3535e-15</t>
+          <t>3.6165e-15</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5.3979e+15</t>
+          <t>9.9644e+15</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>5.7817e+02</t>
+          <t>7.0589e+02</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>4.3474e-15</t>
+          <t>3.9319e-15</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>4.3632e-15</t>
+          <t>3.6192e-15</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>5.1849e+15</t>
+          <t>9.4253e+15</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>5.7077e+02</t>
+          <t>6.8923e+02</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6.6884e-15</t>
+          <t>4.2848e-15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4.3829e-15</t>
+          <t>3.6247e-15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>4.9844e+15</t>
+          <t>8.9352e+15</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>5.6065e+02</t>
+          <t>6.7732e+02</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7.7661e-15</t>
+          <t>3.5992e-15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4.4040e-15</t>
+          <t>3.6304e-15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>4.7963e+15</t>
+          <t>8.4808e+15</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>5.5142e+02</t>
+          <t>6.6737e+02</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4.6120e-15</t>
+          <t>3.8602e-15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4.4273e-15</t>
+          <t>3.6365e-15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>4.6182e+15</t>
+          <t>8.0645e+15</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>5.4945e+02</t>
+          <t>6.5599e+02</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4.3834e-15</t>
+          <t>4.0141e-15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4.4536e-15</t>
+          <t>3.6429e-15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>4.4471e+15</t>
+          <t>7.6771e+15</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>5.4185e+02</t>
+          <t>6.4661e+02</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7.0154e-15</t>
+          <t>5.1534e-15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4.4802e-15</t>
+          <t>3.6495e-15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>4.2880e+15</t>
+          <t>7.3193e+15</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>5.3463e+02</t>
+          <t>6.3189e+02</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5.2018e-15</t>
+          <t>4.9360e-15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4.5060e-15</t>
+          <t>3.6564e-15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>4.1341e+15</t>
+          <t>6.9892e+15</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>5.3130e+02</t>
+          <t>6.2435e+02</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7.6533e-15</t>
+          <t>3.2725e-15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4.5341e-15</t>
+          <t>3.6633e-15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>3.9896e+15</t>
+          <t>6.6769e+15</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>5.2049e+02</t>
+          <t>6.1836e+02</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6.1291e-15</t>
+          <t>4.5871e-15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4.5652e-15</t>
+          <t>3.6705e-15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>3.8527e+15</t>
+          <t>6.3874e+15</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>5.1972e+02</t>
+          <t>6.0712e+02</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4.1943e-16</t>
+          <t>5.3455e-15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4.5950e-15</t>
+          <t>3.6782e-15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>3.7194e+15</t>
+          <t>6.1160e+15</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>5.2116e+02</t>
+          <t>5.9900e+02</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4.1645e-15</t>
+          <t>5.2647e-15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4.6222e-15</t>
+          <t>3.6856e-15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>3.5925e+15</t>
+          <t>5.8617e+15</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>5.1324e+02</t>
+          <t>5.8952e+02</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7.0372e-15</t>
+          <t>5.0861e-15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4.6458e-15</t>
+          <t>3.6930e-15</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>3.4725e+15</t>
+          <t>5.6235e+15</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>5.0979e+02</t>
+          <t>5.8281e+02</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4.0948e-15</t>
+          <t>3.7879e-15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4.6662e-15</t>
+          <t>3.7008e-15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>3.3562e+15</t>
+          <t>5.3979e+15</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>5.0702e+02</t>
+          <t>5.7817e+02</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9.6201e-15</t>
+          <t>4.3474e-15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4.6866e-15</t>
+          <t>3.7087e-15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>3.2462e+15</t>
+          <t>5.1849e+15</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>4.9631e+02</t>
+          <t>5.7077e+02</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1.2582e-14</t>
+          <t>6.6884e-15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4.7233e-15</t>
+          <t>3.7166e-15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>3.1422e+15</t>
+          <t>4.9844e+15</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>4.8958e+02</t>
+          <t>5.6065e+02</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1.4264e-15</t>
+          <t>7.7661e-15</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4.8944e-15</t>
+          <t>3.7245e-15</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>3.0423e+15</t>
+          <t>4.7963e+15</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>4.9401e+02</t>
+          <t>5.5142e+02</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3.6960e-15</t>
+          <t>4.6120e-15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5.2085e-15</t>
+          <t>3.7327e-15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2.9439e+15</t>
+          <t>4.6182e+15</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>4.9434e+02</t>
+          <t>5.4945e+02</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8.0067e-15</t>
+          <t>4.3834e-15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5.4289e-15</t>
+          <t>3.7411e-15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2.8508e+15</t>
+          <t>4.4471e+15</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>4.8476e+02</t>
+          <t>5.4185e+02</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1.5021e-14</t>
+          <t>7.0154e-15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5.5709e-15</t>
+          <t>3.7500e-15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2.7623e+15</t>
+          <t>4.2880e+15</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>4.7680e+02</t>
+          <t>5.3463e+02</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3.7436e-15</t>
+          <t>5.2018e-15</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5.7225e-15</t>
+          <t>3.7592e-15</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2.6780e+15</t>
+          <t>4.1341e+15</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>4.8006e+02</t>
+          <t>5.3130e+02</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6.6470e-15</t>
+          <t>7.6533e-15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5.8445e-15</t>
+          <t>3.7685e-15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2.5941e+15</t>
+          <t>3.9896e+15</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>4.8396e+02</t>
+          <t>5.2049e+02</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1.3312e-14</t>
+          <t>6.1291e-15</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5.8920e-15</t>
+          <t>3.7790e-15</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2.5143e+15</t>
+          <t>3.8527e+15</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>4.6717e+02</t>
+          <t>5.1972e+02</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1.8369e-14</t>
+          <t>-4.1943e-16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5.8179e-15</t>
+          <t>3.7910e-15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2.4409e+15</t>
+          <t>3.7194e+15</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>4.6480e+02</t>
+          <t>5.2116e+02</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-5.5976e-15</t>
+          <t>4.1645e-15</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5.6821e-15</t>
+          <t>3.8038e-15</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2.3667e+15</t>
+          <t>3.5925e+15</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>4.7258e+02</t>
+          <t>5.1324e+02</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3.9831e-16</t>
+          <t>7.0372e-15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5.5680e-15</t>
+          <t>3.8175e-15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2.2959e+15</t>
+          <t>3.4725e+15</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>4.6586e+02</t>
+          <t>5.0979e+02</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1.4587e-14</t>
+          <t>4.0948e-15</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>5.5097e-15</t>
+          <t>3.8331e-15</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2.2281e+15</t>
+          <t>3.3562e+15</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>4.5963e+02</t>
+          <t>5.0702e+02</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1.2778e-14</t>
+          <t>9.6201e-15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5.5071e-15</t>
+          <t>3.8511e-15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2.1633e+15</t>
+          <t>3.2462e+15</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>4.5496e+02</t>
+          <t>4.9631e+02</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7.2489e-15</t>
+          <t>1.2582e-14</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5.5051e-15</t>
+          <t>3.8731e-15</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2.1009e+15</t>
+          <t>3.1422e+15</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>4.5360e+02</t>
+          <t>4.8958e+02</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1.5589e-15</t>
+          <t>1.4264e-15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>5.4943e-15</t>
+          <t>3.8979e-15</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2.0404e+15</t>
+          <t>3.0423e+15</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>4.5368e+02</t>
+          <t>4.9401e+02</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-2.1922e-15</t>
+          <t>-3.6960e-15</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>5.5075e-15</t>
+          <t>3.9246e-15</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>1.9816e+15</t>
+          <t>2.9439e+15</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>4.5523e+02</t>
+          <t>4.9434e+02</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1.3103e-14</t>
+          <t>8.0067e-15</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5.5502e-15</t>
+          <t>3.9563e-15</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>1.9244e+15</t>
+          <t>2.8508e+15</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>4.6325e+02</t>
+          <t>4.8476e+02</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-4.9916e-15</t>
+          <t>1.5021e-14</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>5.5896e-15</t>
+          <t>3.9953e-15</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>1.8673e+15</t>
+          <t>2.7623e+15</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>4.5893e+02</t>
+          <t>4.7680e+02</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>3.3564e-14</t>
+          <t>3.7436e-15</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>5.5942e-15</t>
+          <t>4.0406e-15</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>1.8146e+15</t>
+          <t>2.6780e+15</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>4.4082e+02</t>
+          <t>4.8006e+02</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>1.4251e-14</t>
+          <t>-6.6470e-15</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>5.5741e-15</t>
+          <t>4.1024e-15</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>1.7648e+15</t>
+          <t>2.5941e+15</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>4.4815e+02</t>
+          <t>4.8396e+02</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-3.8578e-14</t>
+          <t>1.3312e-14</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>5.5595e-15</t>
+          <t>4.3659e-15</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>1.7135e+15</t>
+          <t>2.5143e+15</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>4.6612e+02</t>
+          <t>4.6717e+02</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-1.4588e-14</t>
+          <t>1.8369e-14</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>5.5527e-15</t>
+          <t>4.7501e-15</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>1.6630e+15</t>
+          <t>2.4409e+15</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>4.5810e+02</t>
+          <t>4.6480e+02</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>3.5721e-14</t>
+          <t>-5.5976e-15</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>5.5515e-15</t>
+          <t>4.9553e-15</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>1.6164e+15</t>
+          <t>2.3667e+15</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>4.4443e+02</t>
+          <t>4.7258e+02</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>3.0159e-14</t>
+          <t>-3.9831e-16</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>5.5550e-15</t>
+          <t>5.0600e-15</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>1.5715e+15</t>
+          <t>2.2959e+15</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>4.4010e+02</t>
+          <t>4.6586e+02</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>3.3530e-15</t>
+          <t>1.4587e-14</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>5.5631e-15</t>
+          <t>5.1678e-15</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>1.5284e+15</t>
+          <t>2.2281e+15</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>4.4227e+02</t>
+          <t>4.5963e+02</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-2.2535e-14</t>
+          <t>1.2778e-14</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>5.5734e-15</t>
+          <t>5.2736e-15</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>3.7559e-15</t>
+          <t>4.5725e-15</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>5.1620e-15</t>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
+          <t>2.1633e+15</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>4.5496e+02</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>7.2489e-15</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>5.3371e-15</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>2.1009e+15</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>4.5360e+02</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>1.5589e-15</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>5.3298e-15</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>2.0404e+15</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>4.5368e+02</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>-2.1922e-15</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>5.3101e-15</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>1.9816e+15</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>4.5523e+02</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-1.3103e-14</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>5.3198e-15</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>1.9244e+15</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>4.6325e+02</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-4.9916e-15</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>5.3407e-15</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>1.8673e+15</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>4.5893e+02</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>3.3564e-14</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>5.3663e-15</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>1.8146e+15</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>4.4082e+02</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>1.4251e-14</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>5.3877e-15</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>1.7648e+15</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>4.4815e+02</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>-3.8578e-14</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>5.4087e-15</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>1.7135e+15</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>4.6612e+02</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>-1.4588e-14</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>5.4490e-15</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>1.6630e+15</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>4.5810e+02</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>3.5721e-14</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>5.4895e-15</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>1.6164e+15</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>4.4443e+02</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>3.0159e-14</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>5.5150e-15</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>1.5715e+15</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>4.4010e+02</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>3.3530e-15</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>5.5322e-15</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>1.5284e+15</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>4.4227e+02</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-2.2535e-14</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>5.5287e-15</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
           <t>1.4855e+15</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>4.5245e+02</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>-3.7111e-14</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>5.5788e-15</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>3.7559e-15</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>5.1620e-15</t>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-1.0934e-14</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>5.5089e-15</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>1.4431e+15</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>4.4838e+02</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>4.2230e-14</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>5.4797e-15</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>1.4035e+15</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>4.3122e+02</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>3.7774e-14</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>5.4447e-15</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>1.3663e+15</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>4.2890e+02</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>-1.8739e-14</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>5.4037e-15</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>1.3292e+15</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>4.4011e+02</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>-2.5057e-14</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>5.3471e-15</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>1.2923e+15</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>4.4084e+02</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>9.8899e-15</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>5.2764e-15</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>1.2572e+15</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>4.3584e+02</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>1.2531e-14</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>5.2100e-15</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>1.2231e+15</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>4.3516e+02</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>5.9613e-15</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>5.1329e-15</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>1.1900e+15</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>4.3331e+02</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>-7.2087e-15</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>5.0640e-15</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>1.1580e+15</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>4.3795e+02</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>-1.9477e-14</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>5.0018e-15</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>1.1261e+15</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>4.4129e+02</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>1.5219e-14</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>4.9166e-15</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>1.0955e+15</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>4.3236e+02</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>2.9697e-14</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>4.8292e-15</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>1.0665e+15</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>4.2962e+02</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>-2.6657e-14</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>4.7340e-15</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>1.0378e+15</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>4.4203e+02</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>-3.4147e-14</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>4.6572e-15</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>1.0088e+15</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>4.4209e+02</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>3.3358e-14</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>4.6332e-15</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>9.8184e+14</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>4.3088e+02</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>2.4064e-14</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>4.6404e-15</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>9.5574e+14</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>4.3344e+02</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>-1.6758e-14</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>4.6539e-15</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>9.2987e+14</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>4.3645e+02</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>-1.0130e-14</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>4.6627e-15</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>9.0487e+14</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>4.3682e+02</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>5.7929e-15</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>4.6640e-15</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>8.8036e+14</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>4.3467e+02</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>2.2591e-14</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>4.6576e-15</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>8.5696e+14</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>4.3001e+02</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>1.4799e-14</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>4.6438e-15</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>8.3424e+14</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>4.3016e+02</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>-9.2648e-15</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>4.6237e-15</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>8.1206e+14</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>4.3262e+02</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>4.1508e-15</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>4.5989e-15</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>7.9031e+14</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>4.2910e+02</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>2.5248e-14</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>4.5850e-15</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>4.5725e-15</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>4.4871e-15</t>
         </is>
       </c>
     </row>

--- a/J0es.xlsx
+++ b/J0es.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,17 +507,17 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>3.6165e-15</t>
+          <t>3.2708e-15</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -539,17 +539,17 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>3.6192e-15</t>
+          <t>3.2736e-15</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -571,17 +571,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3.6247e-15</t>
+          <t>3.2792e-15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -603,17 +603,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3.6304e-15</t>
+          <t>3.2849e-15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -635,17 +635,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3.6365e-15</t>
+          <t>3.2906e-15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -667,17 +667,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3.6429e-15</t>
+          <t>3.2969e-15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -699,17 +699,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3.6495e-15</t>
+          <t>3.3030e-15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -731,17 +731,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3.6564e-15</t>
+          <t>3.3095e-15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -763,17 +763,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3.6633e-15</t>
+          <t>3.3161e-15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3.6705e-15</t>
+          <t>3.3228e-15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -827,17 +827,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3.6782e-15</t>
+          <t>3.3299e-15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3.6856e-15</t>
+          <t>3.3372e-15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3.6930e-15</t>
+          <t>3.3447e-15</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -923,17 +923,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3.7008e-15</t>
+          <t>3.3524e-15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -955,17 +955,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3.7087e-15</t>
+          <t>3.3601e-15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -987,17 +987,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3.7166e-15</t>
+          <t>3.3680e-15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1019,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3.7245e-15</t>
+          <t>3.3764e-15</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1051,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3.7327e-15</t>
+          <t>3.3845e-15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3.7411e-15</t>
+          <t>3.3925e-15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1115,17 +1115,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3.7500e-15</t>
+          <t>3.4008e-15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1147,17 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3.7592e-15</t>
+          <t>3.4093e-15</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1179,17 +1179,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3.7685e-15</t>
+          <t>3.4177e-15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3.7790e-15</t>
+          <t>3.4263e-15</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1243,17 +1243,17 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3.7910e-15</t>
+          <t>3.4351e-15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3.8038e-15</t>
+          <t>3.4442e-15</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1307,17 +1307,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3.8175e-15</t>
+          <t>3.4541e-15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1339,17 +1339,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3.8331e-15</t>
+          <t>3.4643e-15</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1371,17 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3.8511e-15</t>
+          <t>3.4752e-15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1403,17 +1403,17 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3.8731e-15</t>
+          <t>3.4879e-15</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1435,17 +1435,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3.8979e-15</t>
+          <t>3.5028e-15</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1467,17 +1467,17 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3.9246e-15</t>
+          <t>3.5196e-15</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1499,17 +1499,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3.9563e-15</t>
+          <t>3.5385e-15</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>3.9953e-15</t>
+          <t>3.5609e-15</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1563,17 +1563,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>4.0406e-15</t>
+          <t>3.5880e-15</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1595,17 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>4.1024e-15</t>
+          <t>3.6224e-15</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1627,17 +1627,17 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>4.3659e-15</t>
+          <t>3.6626e-15</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1659,17 +1659,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>4.7501e-15</t>
+          <t>3.7079e-15</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1691,17 +1691,17 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>4.9553e-15</t>
+          <t>3.7675e-15</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1723,17 +1723,17 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>5.0600e-15</t>
+          <t>4.0349e-15</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>5.1678e-15</t>
+          <t>4.4722e-15</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1787,17 +1787,17 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>5.2736e-15</t>
+          <t>4.7127e-15</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1819,17 +1819,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>5.3371e-15</t>
+          <t>4.7825e-15</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1851,17 +1851,17 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>5.3298e-15</t>
+          <t>4.9036e-15</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1883,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>5.3101e-15</t>
+          <t>5.0271e-15</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1915,17 +1915,17 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>5.3198e-15</t>
+          <t>5.0971e-15</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1947,17 +1947,17 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>5.3407e-15</t>
+          <t>5.1694e-15</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -1979,17 +1979,17 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>5.3663e-15</t>
+          <t>5.2288e-15</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2011,17 +2011,17 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>5.3877e-15</t>
+          <t>5.2534e-15</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2043,17 +2043,17 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>5.4087e-15</t>
+          <t>5.2714e-15</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2075,17 +2075,17 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>5.4490e-15</t>
+          <t>5.2833e-15</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2107,17 +2107,17 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>5.4895e-15</t>
+          <t>5.2991e-15</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2139,17 +2139,17 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>5.5150e-15</t>
+          <t>5.3446e-15</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2171,17 +2171,17 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>5.5322e-15</t>
+          <t>5.3700e-15</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2203,17 +2203,17 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>5.5287e-15</t>
+          <t>5.3691e-15</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2235,17 +2235,17 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>5.5089e-15</t>
+          <t>5.3961e-15</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2267,17 +2267,17 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>5.4797e-15</t>
+          <t>5.4340e-15</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2299,17 +2299,17 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>5.4447e-15</t>
+          <t>5.4753e-15</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2331,17 +2331,17 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>5.4037e-15</t>
+          <t>5.5064e-15</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2363,17 +2363,17 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>5.3471e-15</t>
+          <t>5.5227e-15</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2395,17 +2395,17 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>5.2764e-15</t>
+          <t>5.5139e-15</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2427,17 +2427,17 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>5.2100e-15</t>
+          <t>5.4869e-15</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2459,17 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>5.1329e-15</t>
+          <t>5.4625e-15</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2491,17 +2491,17 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>5.0640e-15</t>
+          <t>5.4331e-15</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2523,17 +2523,17 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>5.0018e-15</t>
+          <t>5.3876e-15</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2555,17 +2555,17 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>4.9166e-15</t>
+          <t>5.3193e-15</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2587,17 +2587,17 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>4.8292e-15</t>
+          <t>5.2518e-15</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>4.7340e-15</t>
+          <t>5.1961e-15</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2651,17 +2651,17 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>4.6572e-15</t>
+          <t>5.1337e-15</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2683,17 +2683,17 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>4.6332e-15</t>
+          <t>5.0655e-15</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2715,17 +2715,17 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>4.6404e-15</t>
+          <t>4.9753e-15</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2747,17 +2747,17 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>4.6539e-15</t>
+          <t>4.8900e-15</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2779,17 +2779,17 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>4.6627e-15</t>
+          <t>4.8211e-15</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2811,17 +2811,17 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>4.6640e-15</t>
+          <t>4.7345e-15</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2843,17 +2843,17 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>4.6576e-15</t>
+          <t>4.6711e-15</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2875,17 +2875,17 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>4.6438e-15</t>
+          <t>4.6594e-15</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2907,17 +2907,17 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>4.6237e-15</t>
+          <t>4.6705e-15</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2939,17 +2939,17 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>4.5989e-15</t>
+          <t>4.6838e-15</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
@@ -2966,22 +2966,214 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2.5248e-14</t>
+          <t>-1.1789e-14</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>4.5850e-15</t>
+          <t>4.6917e-15</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>4.5725e-15</t>
+          <t>9.7306e-16</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>4.4871e-15</t>
+          <t>4.3098e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>7.6968e+14</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>4.3530e+02</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>-2.3155e-14</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>4.6924e-15</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>9.7306e-16</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>4.3098e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>7.4847e+14</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>4.3513e+02</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>1.4110e-14</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>4.6856e-15</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>9.7306e-16</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>4.3098e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>7.2902e+14</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>4.3191e+02</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>-7.0225e-14</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>4.6717e-15</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>9.7306e-16</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>4.3098e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>7.0917e+14</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>4.5330e+02</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>-1.5522e-13</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>4.6516e-15</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>9.7306e-16</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>4.3098e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>6.8897e+14</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>4.7167e+02</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>-4.8467e-14</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>4.6271e-15</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>9.7306e-16</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>4.3098e-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>6.6875e+14</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>4.6583e+02</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>4.5076e-14</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>4.6133e-15</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>9.7306e-16</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>4.3098e-15</t>
         </is>
       </c>
     </row>
